--- a/simple-xlsx/tests/read-tests/test2/test2.xlsx
+++ b/simple-xlsx/tests/read-tests/test2/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="17520" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
